--- a/Python/resultados/HW_C012_120.xlsx
+++ b/Python/resultados/HW_C012_120.xlsx
@@ -10,6 +10,7 @@
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="sigma_010" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="sigma_025" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="sigma_050" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -463,10 +464,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>28.15625</v>
+        <v>28.15749220272387</v>
       </c>
       <c r="C2" t="n">
-        <v>33.25</v>
+        <v>33.25940235514033</v>
       </c>
     </row>
     <row r="3">
@@ -474,10 +475,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>28.203125</v>
+        <v>28.19896563328032</v>
       </c>
       <c r="C3" t="n">
-        <v>33.25</v>
+        <v>33.25340765287542</v>
       </c>
     </row>
     <row r="4">
@@ -485,10 +486,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>28.171875</v>
+        <v>28.17809358717455</v>
       </c>
       <c r="C4" t="n">
-        <v>33.25</v>
+        <v>33.26030823922135</v>
       </c>
     </row>
     <row r="5">
@@ -496,10 +497,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>28.1875</v>
+        <v>28.17980109862476</v>
       </c>
       <c r="C5" t="n">
-        <v>33.25</v>
+        <v>33.26081629860633</v>
       </c>
     </row>
     <row r="6">
@@ -507,10 +508,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>28.21875</v>
+        <v>28.21414999486051</v>
       </c>
       <c r="C6" t="n">
-        <v>33.25</v>
+        <v>33.25860301296565</v>
       </c>
     </row>
     <row r="7">
@@ -518,10 +519,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>28.203125</v>
+        <v>28.19725990262864</v>
       </c>
       <c r="C7" t="n">
-        <v>33.25</v>
+        <v>33.24263964833596</v>
       </c>
     </row>
     <row r="8">
@@ -529,10 +530,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>28.203125</v>
+        <v>28.20993693052752</v>
       </c>
       <c r="C8" t="n">
-        <v>33.25</v>
+        <v>33.24407200515023</v>
       </c>
     </row>
     <row r="9">
@@ -540,10 +541,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>28.203125</v>
+        <v>28.19908109582489</v>
       </c>
       <c r="C9" t="n">
-        <v>33.25</v>
+        <v>33.26021059545074</v>
       </c>
     </row>
     <row r="10">
@@ -551,10 +552,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>28.21875</v>
+        <v>28.2194524876628</v>
       </c>
       <c r="C10" t="n">
-        <v>33.25</v>
+        <v>33.25954096572669</v>
       </c>
     </row>
     <row r="11">
@@ -562,10 +563,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>28.21875</v>
+        <v>28.2189707392203</v>
       </c>
       <c r="C11" t="n">
-        <v>33.25</v>
+        <v>33.24830439200367</v>
       </c>
     </row>
     <row r="12">
@@ -575,10 +576,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>28.203125</v>
+        <v>28.19732036725281</v>
       </c>
       <c r="C12" t="n">
-        <v>33.25</v>
+        <v>33.25473051654764</v>
       </c>
     </row>
   </sheetData>
@@ -622,10 +623,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>19.859375</v>
+        <v>19.85380687282416</v>
       </c>
       <c r="C2" t="n">
-        <v>29.546875</v>
+        <v>29.544222895223</v>
       </c>
     </row>
     <row r="3">
@@ -633,10 +634,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>19.859375</v>
+        <v>19.86470388157477</v>
       </c>
       <c r="C3" t="n">
-        <v>29.53125</v>
+        <v>29.52817161099905</v>
       </c>
     </row>
     <row r="4">
@@ -644,10 +645,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>19.890625</v>
+        <v>19.88884880910413</v>
       </c>
       <c r="C4" t="n">
-        <v>29.59375</v>
+        <v>29.59180374711842</v>
       </c>
     </row>
     <row r="5">
@@ -655,10 +656,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>19.890625</v>
+        <v>19.88856580198406</v>
       </c>
       <c r="C5" t="n">
-        <v>29.515625</v>
+        <v>29.51299154080481</v>
       </c>
     </row>
     <row r="6">
@@ -666,10 +667,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>19.859375</v>
+        <v>19.86271077357791</v>
       </c>
       <c r="C6" t="n">
-        <v>29.59375</v>
+        <v>29.59219087220933</v>
       </c>
     </row>
     <row r="7">
@@ -677,10 +678,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>19.875</v>
+        <v>19.86807984186887</v>
       </c>
       <c r="C7" t="n">
-        <v>29.5625</v>
+        <v>29.56182093183921</v>
       </c>
     </row>
     <row r="8">
@@ -688,10 +689,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>19.875</v>
+        <v>19.86832298211278</v>
       </c>
       <c r="C8" t="n">
-        <v>29.546875</v>
+        <v>29.54705751835244</v>
       </c>
     </row>
     <row r="9">
@@ -699,10 +700,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>19.859375</v>
+        <v>19.86591133274888</v>
       </c>
       <c r="C9" t="n">
-        <v>29.46875</v>
+        <v>29.46960142058028</v>
       </c>
     </row>
     <row r="10">
@@ -710,10 +711,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>19.859375</v>
+        <v>19.85172248307931</v>
       </c>
       <c r="C10" t="n">
-        <v>29.546875</v>
+        <v>29.53943119464385</v>
       </c>
     </row>
     <row r="11">
@@ -721,10 +722,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>19.875</v>
+        <v>19.87156248773879</v>
       </c>
       <c r="C11" t="n">
-        <v>29.546875</v>
+        <v>29.54148089143867</v>
       </c>
     </row>
     <row r="12">
@@ -734,10 +735,169 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>19.875</v>
+        <v>19.86842352666137</v>
       </c>
       <c r="C12" t="n">
-        <v>29.546875</v>
+        <v>29.54287726232091</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Rows</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Noisy</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>NLM-LBP</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>14.9750551635481</v>
+      </c>
+      <c r="C2" t="n">
+        <v>25.13139430844031</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>14.97644182520321</v>
+      </c>
+      <c r="C3" t="n">
+        <v>25.08685774624304</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>14.98932466617925</v>
+      </c>
+      <c r="C4" t="n">
+        <v>25.15067803761669</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>14.96603730031879</v>
+      </c>
+      <c r="C5" t="n">
+        <v>25.10599678492797</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>14.99298740699105</v>
+      </c>
+      <c r="C6" t="n">
+        <v>25.08144550619095</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>14.98230432369531</v>
+      </c>
+      <c r="C7" t="n">
+        <v>25.09683889967036</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>14.98830347863831</v>
+      </c>
+      <c r="C8" t="n">
+        <v>25.11233276670974</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>14.99666434806507</v>
+      </c>
+      <c r="C9" t="n">
+        <v>25.1417399975558</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>15.01669892719094</v>
+      </c>
+      <c r="C10" t="n">
+        <v>25.1613059939732</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>14.98581107539644</v>
+      </c>
+      <c r="C11" t="n">
+        <v>25.11782533916428</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>14.98696285152265</v>
+      </c>
+      <c r="C12" t="n">
+        <v>25.11864153804923</v>
       </c>
     </row>
   </sheetData>

--- a/Python/resultados/HW_C012_120.xlsx
+++ b/Python/resultados/HW_C012_120.xlsx
@@ -461,112 +461,112 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>28.15749220272387</v>
+        <v>28.16930748809891</v>
       </c>
       <c r="C2" t="n">
-        <v>33.25940235514033</v>
+        <v>33.04097173550634</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>28.19896563328032</v>
+        <v>28.17297950247055</v>
       </c>
       <c r="C3" t="n">
-        <v>33.25340765287542</v>
+        <v>33.05692585751255</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>28.17809358717455</v>
+        <v>28.17675549325753</v>
       </c>
       <c r="C4" t="n">
-        <v>33.26030823922135</v>
+        <v>33.05172290075931</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>28.17980109862476</v>
+        <v>28.20040540071667</v>
       </c>
       <c r="C5" t="n">
-        <v>33.26081629860633</v>
+        <v>33.03941920188159</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>28.21414999486051</v>
+        <v>28.18786957035335</v>
       </c>
       <c r="C6" t="n">
-        <v>33.25860301296565</v>
+        <v>33.04891119959652</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>28.19725990262864</v>
+        <v>28.16266070185871</v>
       </c>
       <c r="C7" t="n">
-        <v>33.24263964833596</v>
+        <v>33.02975921348241</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>28.20993693052752</v>
+        <v>28.17712855766201</v>
       </c>
       <c r="C8" t="n">
-        <v>33.24407200515023</v>
+        <v>33.08733188744841</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>28.19908109582489</v>
+        <v>28.22725258734179</v>
       </c>
       <c r="C9" t="n">
-        <v>33.26021059545074</v>
+        <v>33.07582437837945</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>28.2194524876628</v>
+        <v>28.17314980835272</v>
       </c>
       <c r="C10" t="n">
-        <v>33.25954096572669</v>
+        <v>33.05004013759471</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>28.2189707392203</v>
+        <v>28.14708379545179</v>
       </c>
       <c r="C11" t="n">
-        <v>33.24830439200367</v>
+        <v>33.03082551432844</v>
       </c>
     </row>
     <row r="12">
@@ -576,10 +576,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>28.19732036725281</v>
+        <v>28.1794592905564</v>
       </c>
       <c r="C12" t="n">
-        <v>33.25473051654764</v>
+        <v>33.05117320264898</v>
       </c>
     </row>
   </sheetData>
@@ -620,112 +620,112 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>19.85380687282416</v>
+        <v>19.85830119490692</v>
       </c>
       <c r="C2" t="n">
-        <v>29.544222895223</v>
+        <v>29.50381495727706</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>19.86470388157477</v>
+        <v>19.83298649664522</v>
       </c>
       <c r="C3" t="n">
-        <v>29.52817161099905</v>
+        <v>29.46716303048007</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>19.88884880910413</v>
+        <v>19.85508146645041</v>
       </c>
       <c r="C4" t="n">
-        <v>29.59180374711842</v>
+        <v>29.49877160464699</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>19.88856580198406</v>
+        <v>19.84163348472186</v>
       </c>
       <c r="C5" t="n">
-        <v>29.51299154080481</v>
+        <v>29.49483906435426</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>19.86271077357791</v>
+        <v>19.85184617895172</v>
       </c>
       <c r="C6" t="n">
-        <v>29.59219087220933</v>
+        <v>29.45613160740098</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>19.86807984186887</v>
+        <v>19.86403301202607</v>
       </c>
       <c r="C7" t="n">
-        <v>29.56182093183921</v>
+        <v>29.51284830809138</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>19.86832298211278</v>
+        <v>19.83322692685066</v>
       </c>
       <c r="C8" t="n">
-        <v>29.54705751835244</v>
+        <v>29.51395367399795</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>19.86591133274888</v>
+        <v>19.85860513323254</v>
       </c>
       <c r="C9" t="n">
-        <v>29.46960142058028</v>
+        <v>29.48709728076837</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>19.85172248307931</v>
+        <v>19.86051346719876</v>
       </c>
       <c r="C10" t="n">
-        <v>29.53943119464385</v>
+        <v>29.44687135889752</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>19.87156248773879</v>
+        <v>19.82635023505657</v>
       </c>
       <c r="C11" t="n">
-        <v>29.54148089143867</v>
+        <v>29.49646257246044</v>
       </c>
     </row>
     <row r="12">
@@ -735,10 +735,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>19.86842352666137</v>
+        <v>19.84825775960407</v>
       </c>
       <c r="C12" t="n">
-        <v>29.54287726232091</v>
+        <v>29.4877953458375</v>
       </c>
     </row>
   </sheetData>
@@ -779,112 +779,112 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>14.9750551635481</v>
+        <v>14.89663588617208</v>
       </c>
       <c r="C2" t="n">
-        <v>25.13139430844031</v>
+        <v>25.00601660287861</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>14.97644182520321</v>
+        <v>14.88026691438229</v>
       </c>
       <c r="C3" t="n">
-        <v>25.08685774624304</v>
+        <v>24.99099851873351</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>14.98932466617925</v>
+        <v>14.89171075275804</v>
       </c>
       <c r="C4" t="n">
-        <v>25.15067803761669</v>
+        <v>24.96189070191538</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>14.96603730031879</v>
+        <v>14.87840419464074</v>
       </c>
       <c r="C5" t="n">
-        <v>25.10599678492797</v>
+        <v>24.96007928716441</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>14.99298740699105</v>
+        <v>14.89966891085526</v>
       </c>
       <c r="C6" t="n">
-        <v>25.08144550619095</v>
+        <v>24.9497176206858</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>14.98230432369531</v>
+        <v>14.89375184249389</v>
       </c>
       <c r="C7" t="n">
-        <v>25.09683889967036</v>
+        <v>24.98987031777179</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>14.98830347863831</v>
+        <v>14.8825148057283</v>
       </c>
       <c r="C8" t="n">
-        <v>25.11233276670974</v>
+        <v>24.93601328084555</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>14.99666434806507</v>
+        <v>14.86926121449483</v>
       </c>
       <c r="C9" t="n">
-        <v>25.1417399975558</v>
+        <v>24.81095106063454</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>15.01669892719094</v>
+        <v>14.88608997419887</v>
       </c>
       <c r="C10" t="n">
-        <v>25.1613059939732</v>
+        <v>24.92656837590088</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>14.98581107539644</v>
+        <v>14.87354539834943</v>
       </c>
       <c r="C11" t="n">
-        <v>25.11782533916428</v>
+        <v>24.93933485306041</v>
       </c>
     </row>
     <row r="12">
@@ -894,10 +894,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>14.98696285152265</v>
+        <v>14.88518498940737</v>
       </c>
       <c r="C12" t="n">
-        <v>25.11864153804923</v>
+        <v>24.94714406195909</v>
       </c>
     </row>
   </sheetData>

--- a/Python/resultados/HW_C012_120.xlsx
+++ b/Python/resultados/HW_C012_120.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="sigma_010" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="sigma_025" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="sigma_050" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sigma_010" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sigma_025" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sigma_050" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,6 +458,11 @@
           <t>NLM-LBP</t>
         </is>
       </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>NLM-GLCM</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -469,6 +474,9 @@
       <c r="C2" t="n">
         <v>33.04097173550634</v>
       </c>
+      <c r="D2" t="n">
+        <v>32.74084761629552</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -480,6 +488,9 @@
       <c r="C3" t="n">
         <v>33.05692585751255</v>
       </c>
+      <c r="D3" t="n">
+        <v>32.74063797618317</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -491,6 +502,9 @@
       <c r="C4" t="n">
         <v>33.05172290075931</v>
       </c>
+      <c r="D4" t="n">
+        <v>32.76710633245447</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -502,6 +516,9 @@
       <c r="C5" t="n">
         <v>33.03941920188159</v>
       </c>
+      <c r="D5" t="n">
+        <v>32.73719813651305</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -513,6 +530,9 @@
       <c r="C6" t="n">
         <v>33.04891119959652</v>
       </c>
+      <c r="D6" t="n">
+        <v>32.73794216253685</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -524,6 +544,9 @@
       <c r="C7" t="n">
         <v>33.02975921348241</v>
       </c>
+      <c r="D7" t="n">
+        <v>32.7175123032362</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -535,6 +558,9 @@
       <c r="C8" t="n">
         <v>33.08733188744841</v>
       </c>
+      <c r="D8" t="n">
+        <v>32.7733791534007</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -546,6 +572,9 @@
       <c r="C9" t="n">
         <v>33.07582437837945</v>
       </c>
+      <c r="D9" t="n">
+        <v>32.74373129673853</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -557,6 +586,9 @@
       <c r="C10" t="n">
         <v>33.05004013759471</v>
       </c>
+      <c r="D10" t="n">
+        <v>32.76152659036328</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -568,6 +600,9 @@
       <c r="C11" t="n">
         <v>33.03082551432844</v>
       </c>
+      <c r="D11" t="n">
+        <v>32.71247371626431</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -580,6 +615,9 @@
       </c>
       <c r="C12" t="n">
         <v>33.05117320264898</v>
+      </c>
+      <c r="D12" t="n">
+        <v>32.74323552839861</v>
       </c>
     </row>
   </sheetData>
@@ -593,7 +631,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -617,6 +655,11 @@
           <t>NLM-LBP</t>
         </is>
       </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>NLM-GLCM</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -628,6 +671,9 @@
       <c r="C2" t="n">
         <v>29.50381495727706</v>
       </c>
+      <c r="D2" t="n">
+        <v>28.5179001300055</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -639,6 +685,9 @@
       <c r="C3" t="n">
         <v>29.46716303048007</v>
       </c>
+      <c r="D3" t="n">
+        <v>28.52324548501059</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -650,6 +699,9 @@
       <c r="C4" t="n">
         <v>29.49877160464699</v>
       </c>
+      <c r="D4" t="n">
+        <v>28.56088594459964</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -661,6 +713,9 @@
       <c r="C5" t="n">
         <v>29.49483906435426</v>
       </c>
+      <c r="D5" t="n">
+        <v>28.52141357527801</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -672,6 +727,9 @@
       <c r="C6" t="n">
         <v>29.45613160740098</v>
       </c>
+      <c r="D6" t="n">
+        <v>28.46775416284039</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -683,6 +741,9 @@
       <c r="C7" t="n">
         <v>29.51284830809138</v>
       </c>
+      <c r="D7" t="n">
+        <v>28.55416294957512</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -694,6 +755,9 @@
       <c r="C8" t="n">
         <v>29.51395367399795</v>
       </c>
+      <c r="D8" t="n">
+        <v>28.54531734881547</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -705,6 +769,9 @@
       <c r="C9" t="n">
         <v>29.48709728076837</v>
       </c>
+      <c r="D9" t="n">
+        <v>28.51293074872881</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -716,6 +783,9 @@
       <c r="C10" t="n">
         <v>29.44687135889752</v>
       </c>
+      <c r="D10" t="n">
+        <v>28.44409458764371</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -727,6 +797,9 @@
       <c r="C11" t="n">
         <v>29.49646257246044</v>
       </c>
+      <c r="D11" t="n">
+        <v>28.51755858499255</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -739,6 +812,9 @@
       </c>
       <c r="C12" t="n">
         <v>29.4877953458375</v>
+      </c>
+      <c r="D12" t="n">
+        <v>28.51652635174898</v>
       </c>
     </row>
   </sheetData>
@@ -752,7 +828,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -776,6 +852,11 @@
           <t>NLM-LBP</t>
         </is>
       </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>NLM-GLCM</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -787,6 +868,9 @@
       <c r="C2" t="n">
         <v>25.00601660287861</v>
       </c>
+      <c r="D2" t="n">
+        <v>23.88256594906852</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -798,6 +882,9 @@
       <c r="C3" t="n">
         <v>24.99099851873351</v>
       </c>
+      <c r="D3" t="n">
+        <v>23.88739558583626</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -809,6 +896,9 @@
       <c r="C4" t="n">
         <v>24.96189070191538</v>
       </c>
+      <c r="D4" t="n">
+        <v>23.84587220897084</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -820,6 +910,9 @@
       <c r="C5" t="n">
         <v>24.96007928716441</v>
       </c>
+      <c r="D5" t="n">
+        <v>23.85197704006888</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -831,6 +924,9 @@
       <c r="C6" t="n">
         <v>24.9497176206858</v>
       </c>
+      <c r="D6" t="n">
+        <v>23.81245910644217</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -842,6 +938,9 @@
       <c r="C7" t="n">
         <v>24.98987031777179</v>
       </c>
+      <c r="D7" t="n">
+        <v>23.86988244358376</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -853,6 +952,9 @@
       <c r="C8" t="n">
         <v>24.93601328084555</v>
       </c>
+      <c r="D8" t="n">
+        <v>23.81626007712529</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -864,6 +966,9 @@
       <c r="C9" t="n">
         <v>24.81095106063454</v>
       </c>
+      <c r="D9" t="n">
+        <v>23.69963054202058</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -875,6 +980,9 @@
       <c r="C10" t="n">
         <v>24.92656837590088</v>
       </c>
+      <c r="D10" t="n">
+        <v>23.8263974606561</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -886,6 +994,9 @@
       <c r="C11" t="n">
         <v>24.93933485306041</v>
       </c>
+      <c r="D11" t="n">
+        <v>23.83965494512724</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -898,6 +1009,9 @@
       </c>
       <c r="C12" t="n">
         <v>24.94714406195909</v>
+      </c>
+      <c r="D12" t="n">
+        <v>23.83320953588996</v>
       </c>
     </row>
   </sheetData>
